--- a/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/ConditionalFormattingOrder/ConditionalFormattingOrder.xlsx
+++ b/ClosedXML.Tests/Resource/Other/StyleReferenceFiles/ConditionalFormattingOrder/ConditionalFormattingOrder.xlsx
@@ -388,7 +388,7 @@
   <x:sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <x:sheetData>
     <x:row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <x:c r="A1" s="0" t="n">
+      <x:c r="A1" s="0">
         <x:v>10</x:v>
       </x:c>
     </x:row>
